--- a/tailoringexpert-poi/src/test/resources/basecatalog_requirement_without_phase.xlsx
+++ b/tailoringexpert-poi/src/test/resources/basecatalog_requirement_without_phase.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baed_mi\entwicklung\baed_mi\git\tailoringexpert\platform\tailoringexpert-poi\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micrf\entwicklung\micrf\git\tailoringexpert\platform\tailoringexpert-poi\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB3D0D7-5AB8-4B6B-814F-5E7EACE77FEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FEC1FA-97EB-4941-B384-D378FCD382B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8580" activeTab="2" xr2:uid="{B9C72D44-F836-48C0-9868-A51C9E488EC3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B9C72D44-F836-48C0-9868-A51C9E488EC3}"/>
   </bookViews>
   <sheets>
     <sheet name="8.2.0" sheetId="1" r:id="rId1"/>
     <sheet name="DRD" sheetId="2" r:id="rId2"/>
-    <sheet name="LOGO" sheetId="3" r:id="rId3"/>
+    <sheet name="AD" sheetId="4" r:id="rId3"/>
+    <sheet name="LOGO" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>1</t>
   </si>
@@ -85,15 +86,43 @@
   <si>
     <t>ecss.png</t>
   </si>
+  <si>
+    <t>Software product assurance (15 February 2017)</t>
+  </si>
+  <si>
+    <t>Rev.1</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>ECSS-Q-ST-80</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,10 +150,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -132,9 +162,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{A756CB8E-9841-4DCF-9011-710B4AF28BB2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -560,10 +595,64 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1EB674-2DAE-46D3-9820-C6120C0189FD}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="11.5546875" style="3"/>
+    <col min="5" max="5" width="39.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703835B9-472E-4153-82D3-D7B946C65231}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
